--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>20.772035</v>
+        <v>0.2288403333333333</v>
       </c>
       <c r="N2">
-        <v>62.31610500000001</v>
+        <v>0.686521</v>
       </c>
       <c r="O2">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="P2">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="Q2">
-        <v>850.46593930312</v>
+        <v>0.1272201218713334</v>
       </c>
       <c r="R2">
-        <v>7654.19345372808</v>
+        <v>1.144981096842</v>
       </c>
       <c r="S2">
-        <v>0.02945271160542749</v>
+        <v>8.76199781239169E-06</v>
       </c>
       <c r="T2">
-        <v>0.02945271160542749</v>
+        <v>8.761997812391689E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1899903333333333</v>
+        <v>0.2676766666666667</v>
       </c>
       <c r="N3">
-        <v>0.569971</v>
+        <v>0.80303</v>
       </c>
       <c r="O3">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="P3">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="Q3">
-        <v>7.778742299290666</v>
+        <v>0.1488105600066667</v>
       </c>
       <c r="R3">
-        <v>70.008680693616</v>
+        <v>1.33929504006</v>
       </c>
       <c r="S3">
-        <v>0.0002693876885671386</v>
+        <v>1.024899034885298E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002693876885671386</v>
+        <v>1.024899034885298E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H4">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.208524</v>
+        <v>149.554372</v>
       </c>
       <c r="N4">
-        <v>483.625572</v>
+        <v>448.6631160000001</v>
       </c>
       <c r="O4">
-        <v>0.8849318651667604</v>
+        <v>0.99669100927486</v>
       </c>
       <c r="P4">
-        <v>0.8849318651667604</v>
+        <v>0.9966910092748601</v>
       </c>
       <c r="Q4">
-        <v>6600.333515099967</v>
+        <v>83.14236024344802</v>
       </c>
       <c r="R4">
-        <v>59403.00163589971</v>
+        <v>748.2812421910321</v>
       </c>
       <c r="S4">
-        <v>0.228577901284522</v>
+        <v>0.00572624179142785</v>
       </c>
       <c r="T4">
-        <v>0.228577901284522</v>
+        <v>0.005726241791427849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>239.063137</v>
       </c>
       <c r="I5">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J5">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>20.772035</v>
+        <v>0.2288403333333333</v>
       </c>
       <c r="N5">
-        <v>62.31610500000001</v>
+        <v>0.686521</v>
       </c>
       <c r="O5">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="P5">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="Q5">
-        <v>1655.275949657932</v>
+        <v>18.23576265293078</v>
       </c>
       <c r="R5">
-        <v>14897.48354692139</v>
+        <v>164.121863876377</v>
       </c>
       <c r="S5">
-        <v>0.05732430062116695</v>
+        <v>0.001255946859050112</v>
       </c>
       <c r="T5">
-        <v>0.05732430062116695</v>
+        <v>0.001255946859050112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1899903333333333</v>
+        <v>0.2676766666666667</v>
       </c>
       <c r="N6">
-        <v>0.569971</v>
+        <v>0.80303</v>
       </c>
       <c r="O6">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="P6">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="Q6">
-        <v>15.13989502878078</v>
+        <v>21.33054121167889</v>
       </c>
       <c r="R6">
-        <v>136.259055259027</v>
+        <v>191.97487090511</v>
       </c>
       <c r="S6">
-        <v>0.0005243137219398925</v>
+        <v>0.001469092724363874</v>
       </c>
       <c r="T6">
-        <v>0.0005243137219398925</v>
+        <v>0.001469092724363874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>161.208524</v>
+        <v>149.554372</v>
       </c>
       <c r="N7">
-        <v>483.625572</v>
+        <v>448.6631160000001</v>
       </c>
       <c r="O7">
-        <v>0.8849318651667604</v>
+        <v>0.99669100927486</v>
       </c>
       <c r="P7">
-        <v>0.8849318651667604</v>
+        <v>0.9966910092748601</v>
       </c>
       <c r="Q7">
-        <v>12846.33848619326</v>
+        <v>11917.64577412832</v>
       </c>
       <c r="R7">
-        <v>115617.0463757394</v>
+        <v>107258.8119671549</v>
       </c>
       <c r="S7">
-        <v>0.4448849567445177</v>
+        <v>0.8208008659776409</v>
       </c>
       <c r="T7">
-        <v>0.4448849567445177</v>
+        <v>0.820800865977641</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H8">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I8">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J8">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>20.772035</v>
+        <v>0.2288403333333333</v>
       </c>
       <c r="N8">
-        <v>62.31610500000001</v>
+        <v>0.686521</v>
       </c>
       <c r="O8">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="P8">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="Q8">
-        <v>7.195882984758334</v>
+        <v>0.07888118661988888</v>
       </c>
       <c r="R8">
-        <v>64.762946862825</v>
+        <v>0.7099306795789999</v>
       </c>
       <c r="S8">
-        <v>0.000249202532990509</v>
+        <v>5.432763107249201E-06</v>
       </c>
       <c r="T8">
-        <v>0.000249202532990509</v>
+        <v>5.432763107249201E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H9">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I9">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J9">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1899903333333333</v>
+        <v>0.2676766666666667</v>
       </c>
       <c r="N9">
-        <v>0.569971</v>
+        <v>0.80303</v>
       </c>
       <c r="O9">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="P9">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="Q9">
-        <v>0.06581676792388888</v>
+        <v>0.09226805777444444</v>
       </c>
       <c r="R9">
-        <v>0.592350911315</v>
+        <v>0.8304125199699999</v>
       </c>
       <c r="S9">
-        <v>2.279317953699664E-06</v>
+        <v>6.354753544340706E-06</v>
       </c>
       <c r="T9">
-        <v>2.279317953699664E-06</v>
+        <v>6.354753544340706E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H10">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.208524</v>
+        <v>149.554372</v>
       </c>
       <c r="N10">
-        <v>483.625572</v>
+        <v>448.6631160000001</v>
       </c>
       <c r="O10">
-        <v>0.8849318651667604</v>
+        <v>0.99669100927486</v>
       </c>
       <c r="P10">
-        <v>0.8849318651667604</v>
+        <v>0.9966910092748601</v>
       </c>
       <c r="Q10">
-        <v>55.84612556495333</v>
+        <v>51.55134217694267</v>
       </c>
       <c r="R10">
-        <v>502.61513008458</v>
+        <v>463.962079592484</v>
       </c>
       <c r="S10">
-        <v>0.001934021992571323</v>
+        <v>0.003550481957854558</v>
       </c>
       <c r="T10">
-        <v>0.001934021992571323</v>
+        <v>0.003550481957854558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H11">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I11">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J11">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>20.772035</v>
+        <v>0.2288403333333333</v>
       </c>
       <c r="N11">
-        <v>62.31610500000001</v>
+        <v>0.686521</v>
       </c>
       <c r="O11">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="P11">
-        <v>0.1140252092120093</v>
+        <v>0.001525084821945529</v>
       </c>
       <c r="Q11">
-        <v>779.6132826353918</v>
+        <v>3.701656393905556</v>
       </c>
       <c r="R11">
-        <v>7016.519543718527</v>
+        <v>33.31490754515</v>
       </c>
       <c r="S11">
-        <v>0.02699899445242438</v>
+        <v>0.0002549432019757761</v>
       </c>
       <c r="T11">
-        <v>0.02699899445242437</v>
+        <v>0.0002549432019757761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H12">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I12">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J12">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1899903333333333</v>
+        <v>0.2676766666666667</v>
       </c>
       <c r="N12">
-        <v>0.569971</v>
+        <v>0.80303</v>
       </c>
       <c r="O12">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="P12">
-        <v>0.001042925621230309</v>
+        <v>0.001783905903194393</v>
       </c>
       <c r="Q12">
-        <v>7.130692175272778</v>
+        <v>4.329861918277778</v>
       </c>
       <c r="R12">
-        <v>64.176229577455</v>
+        <v>38.9687572645</v>
       </c>
       <c r="S12">
-        <v>0.0002469448927695782</v>
+        <v>0.0002982094349373252</v>
       </c>
       <c r="T12">
-        <v>0.0002469448927695781</v>
+        <v>0.0002982094349373252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H13">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I13">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J13">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>161.208524</v>
+        <v>149.554372</v>
       </c>
       <c r="N13">
-        <v>483.625572</v>
+        <v>448.6631160000001</v>
       </c>
       <c r="O13">
-        <v>0.8849318651667604</v>
+        <v>0.99669100927486</v>
       </c>
       <c r="P13">
-        <v>0.8849318651667604</v>
+        <v>0.9966910092748601</v>
       </c>
       <c r="Q13">
-        <v>6050.457096979007</v>
+        <v>2419.149147733267</v>
       </c>
       <c r="R13">
-        <v>54454.11387281107</v>
+        <v>21772.3423295994</v>
       </c>
       <c r="S13">
-        <v>0.2095349851451493</v>
+        <v>0.1666134195479367</v>
       </c>
       <c r="T13">
-        <v>0.2095349851451493</v>
+        <v>0.1666134195479367</v>
       </c>
     </row>
   </sheetData>
